--- a/AllBook.xlsx
+++ b/AllBook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/152616/air-and-light-and-time-and-space---how-successful-academics-write</t>
+          <t>https://www.rokomari.com/book/217729/our-knowledge-of-the-past</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,137 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/114864/phobias--fighting-the-fear</t>
+          <t>https://www.rokomari.com/book/208711/doctor-judy-moody</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106824/changes-for-julie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106829/julie-and-the-eagles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106904/happy-new-year--julie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106913/julie-tells-her-story</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106915/julie-s-journey</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85834/judy-moody---the-doctors-is-in---no-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85835/judy-moody---and-the-not-bummer-summer-no-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85836/judy-moody---declares-independence-no-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85837/judy-moody---girl-detective-no-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85838/judy-moody---and-the-bad-luck-charm-no-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106529/julie-story-collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106870/the-big-break</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106873/a-brighter-tomorrow--my-journey-with-julie</t>
         </is>
       </c>
     </row>

--- a/AllBook.xlsx
+++ b/AllBook.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/217729/our-knowledge-of-the-past</t>
+          <t>https://www.rokomari.com/book/167748/mindfulness--a-21-day-challenge-to-awaken-and-find-happiness--love--freedom-and-wisdom</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/208711/doctor-judy-moody</t>
+          <t>https://www.rokomari.com/book/187017/the-better-beginnings--better-futures-project--findings-from-grade-3-to-grade-9--monographs-of-the-society-for-research-in-child-development-</t>
         </is>
       </c>
     </row>
@@ -466,127 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/106824/changes-for-julie</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106829/julie-and-the-eagles</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106904/happy-new-year--julie</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106913/julie-tells-her-story</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106915/julie-s-journey</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/85834/judy-moody---the-doctors-is-in---no-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/85835/judy-moody---and-the-not-bummer-summer-no-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/85836/judy-moody---declares-independence-no-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/85837/judy-moody---girl-detective-no-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/85838/judy-moody---and-the-bad-luck-charm-no-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106529/julie-story-collection</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106870/the-big-break</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/106873/a-brighter-tomorrow--my-journey-with-julie</t>
+          <t>https://www.rokomari.com/book/187017/the-better-beginnings--better-futures-project--findings-from-grade-3-to-grade-9--monographs-of-the-society-for-research-in-child-development-</t>
         </is>
       </c>
     </row>

--- a/AllBook.xlsx
+++ b/AllBook.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/167748/mindfulness--a-21-day-challenge-to-awaken-and-find-happiness--love--freedom-and-wisdom</t>
+          <t>https://www.rokomari.com/book/217729/our-knowledge-of-the-past</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/187017/the-better-beginnings--better-futures-project--findings-from-grade-3-to-grade-9--monographs-of-the-society-for-research-in-child-development-</t>
+          <t>https://www.rokomari.com/book/208711/doctor-judy-moody</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,787 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.rokomari.com/book/187017/the-better-beginnings--better-futures-project--findings-from-grade-3-to-grade-9--monographs-of-the-society-for-research-in-child-development-</t>
+          <t>https://www.rokomari.com/book/106824/changes-for-julie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106829/julie-and-the-eagles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106904/happy-new-year--julie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106913/julie-tells-her-story</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106915/julie-s-journey</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85834/judy-moody---the-doctors-is-in---no-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85835/judy-moody---and-the-not-bummer-summer-no-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85836/judy-moody---declares-independence-no-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85837/judy-moody---girl-detective-no-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85838/judy-moody---and-the-bad-luck-charm-no-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106529/julie-story-collection</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106870/the-big-break</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/106873/a-brighter-tomorrow--my-journey-with-julie</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/204856/the-science-delusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/118075/diwane-mutanabbi</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/143490/diwane-mutanabbi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45080/chohih-nurani-bangla-uccharon-sohoj-sorol-banganubad-o-shane-nujulsoho-quran-sorif-3no-artcolor</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/79055/tarbiatus-salik-allahopremikder-atmoshuddhir-poth</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/79056/tarbiatus-salik-2nd-part</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/100692/tarbiatus-salik-3rd-part</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46424/islamer-sudorjo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46674/je-fuler-khushbute-sara-jahan-matoyara</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/42342/dampotto-jibone-islami-retineti</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46621/sufi-totho-ba-marfater-gopon-bedhan</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/26286/namaz-adayer-sotik-podhoti</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45721/nurani-bangla-quran-shorif-mul-arbir-bangla-uccharon-onubad-o-projoniyo-tikasoho-top-12-offset</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46655/chitrosoho-dharabahik-poripurno-namaz-shikha-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45724/sohih-nurani-bangla-uccharon-o-sohoj-sorol-bonganubad-quran-shorif-7-sada</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/48819/shami-shtrir-dayetto-kortobbo-o-modur-milon</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/47882/quran-hadither-aloke-islami-bibaho</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/49083/beheshti-jeor-1st-volume-1st-2nd-and-3rd-khondo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/49090/beheshti-jeor-3rd-volume-8th-9th-and-10th-khondo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/68916/chohiho-nurani-quran-shorif-30-khondo-set-para-arbi-bangla-uccharon</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/66820/beheshti-zeor-2nd-volume-4th-5th-6th-and-7th-khondo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46408/procholito-ku-protha</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46612/baro-chander-fozilot-boro-royel</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/85223/sohih-nurani-quran-shorif-bangla-uccharon-sohoj-bangla-onubad-sonkhipto-tafsir-sane-nujul-o-proyojoniyo-tikasoho-ofset-5-number</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/48811/islamer-dristeta-podar-hukum-o-narir-morjada-large</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46647/islamer-drishtite-pordar-hukum</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45136/punango-namaz-sikkha</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/121877/attar-prpshanty</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/146804/munajate-maqbul</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/46644/musolmaner-hasi</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45062/sohih-nurani-quran-shorif-tafsirsoho-bangla-uccaron-ortho-o-sanenujul-1no-jeket-badhai</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/44644/munajat-mokbhula-o-masnun-dowa-boro</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/120851/quran-sharifar-sohoj-sorol-bonganubad-pocket-size</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/164440/bipad-apad-theke-mukti-rijik-briddhir-sahoj-upay</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/154097/dindar-swami-dindar-stri</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/42304/dunia-o-akherat--maoyayeje-ashrafia-1st-o-2nd-khondo-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/47860/adabul-muahsarat</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/188337/lokman-hakimer-kobiraji-o-hakimi-chikitsa</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45691/chohih-nurani-bangla-uccharon-o-sohoj-sorol-banganubad-quran-shorif-5no-jaket-badhai-mazari</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/41896/porda-ki-o-keno--quran-hadiser-aloke-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/26306/behesti-joar-1-theka-11-khondo</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/203872/bishoyvittik-jumar-boyan-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/98606/ahamali-qurani</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/125633/muslim-bor-kone-isalamibiye</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/48770/nurani-quran-shorif-30-para-ekotre-12no-bangla-ortho-sho-white-with-box</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/98416/adorsho-sontan-gorar-upay-o-sontaner-adhikar</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45710/chohih-nurani-bangla-uccharon-o-sohoj-sorol-banganubad-quran-shorif-7no-sada-big-size</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45738/lahoree-taipe-nuranee-bangla-quran-shorif-bangla-uccaron-bonganubad-shanenujul-o-proyojoniyo-tikasoho-top-24-no-offset</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/174028/sobdarthe-hisnul-muslim-o-munajate-makbul-hijbul-baharsoho</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/121595/hayatul-muslimin---adarsho-muslim-jibon</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/45065/sohih-nurani-quran-sorif-bonganubad-o-shane-nujulsoho-2no</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/69949/nur-nurani-quran-shareef-sada-lami-bangla-uccaron-bonganubad-o-sane-nuzul-medium-size</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/26298/behesti-jeore-masayel-ongsho</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/41787/talimuddin-1st-and-2nd-part-ekotre2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/121585/talimud-din-din-shikkha</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/26288/quran-hadiser-aloke-parebarek-jibon</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/67851/boyanul-quran-1st-part</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/121565/furuul-eman---emaner-shakha-proshakha</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/188251/sohih-nurani-quran-sharif-mul-arabir-bangla-uccharon-songkhipto-tafsir-shanenuzul-o-proyojoniyo-tikasoho-30-para-ekotre-v-i-p-13-boro-sada</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/202435/sohih-nurani-quran-shorif--30-para-30-khondo-set-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/121567/jazaul-a-mal-amaler-protidan</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/48816/purnago-mozmuya-ajifa-shorif-1-3khondo-akettre-arbi-bangla-uccharon-o-ortho-soho</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/121888/mumin-o-munafik</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/102335/darse--muslim-2nd-volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/102336/darse-muslim-1st-volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.rokomari.com/book/213793/mufti-muhammad-shofi--r--jibon-kormo-obodan</t>
         </is>
       </c>
     </row>

--- a/AllBook.xlsx
+++ b/AllBook.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE463975-0A5F-4BA1-AC05-C1247C2862CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Books Link</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,94 +384,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Books Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/99963/banking-theroy-and-practice</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/123089/banking-theory-and-practice</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/89679/radiation-oncology--rationale--technique--results</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/153143/augustown--a-novel</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/60429/molecular-biology---principles-of-genome-function</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/217624/the-miracles-of-the-namiya-general-store</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.rokomari.com/book/107408/silent-selling--best-practices-and-effective-strategies-in-visual-merchandising</t>
-        </is>
       </c>
     </row>
   </sheetData>
